--- a/works/nettyServer/src/main/resources/excels/Buff.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Buff.xlsx
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,13 +67,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,32 +92,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,54 +162,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +189,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,13 +223,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,13 +355,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,151 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,22 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +486,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +503,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>10000</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>10000</v>

--- a/works/nettyServer/src/main/resources/excels/Buff.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Buff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -39,16 +39,34 @@
     <t>state</t>
   </si>
   <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
     <t>中毒</t>
   </si>
   <si>
+    <t>每3秒扣除100滴血，持续15秒</t>
+  </si>
+  <si>
     <t>固本培元</t>
   </si>
   <si>
+    <t>每8秒回升150点血，持续120秒</t>
+  </si>
+  <si>
     <t>强攻</t>
   </si>
   <si>
+    <t>提高50点攻击力，持续10秒</t>
+  </si>
+  <si>
     <t>禁锢</t>
+  </si>
+  <si>
+    <t>减少10点攻击力，持续15秒</t>
   </si>
 </sst>
 </file>
@@ -56,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,7 +89,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,62 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,59 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,19 +241,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,12 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,145 +391,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +432,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,69 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -522,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,15 +1034,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,13 +1064,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1069,13 +1093,19 @@
       <c r="G2">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -1092,13 +1122,19 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1115,13 +1151,19 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1130,13 +1172,19 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
         <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/src/main/resources/excels/Buff.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15275" windowHeight="7307"/>
+    <workbookView windowWidth="15708" windowHeight="8435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>hp</t>
   </si>
   <si>
@@ -36,7 +39,10 @@
     <t>times</t>
   </si>
   <si>
-    <t>state</t>
+    <t>targetType</t>
+  </si>
+  <si>
+    <t>targetNumber</t>
   </si>
   <si>
     <t>describe</t>
@@ -45,28 +51,64 @@
     <t>rate</t>
   </si>
   <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>(atk+speed*0.5-def*0.3)*1.2</t>
+  </si>
+  <si>
+    <t>攻击造成伤害</t>
+  </si>
+  <si>
     <t>中毒</t>
   </si>
   <si>
-    <t>每3秒扣除100滴血，持续15秒</t>
-  </si>
-  <si>
-    <t>固本培元</t>
-  </si>
-  <si>
-    <t>每8秒回升150点血，持续120秒</t>
+    <t>atk*0.5+def*0.2</t>
+  </si>
+  <si>
+    <t>每3秒掉一定的血量</t>
+  </si>
+  <si>
+    <t>回血</t>
+  </si>
+  <si>
+    <t>def*0.8*(-1)</t>
+  </si>
+  <si>
+    <t>每8秒回升一定血量，持续120秒</t>
   </si>
   <si>
     <t>强攻</t>
   </si>
   <si>
-    <t>提高50点攻击力，持续10秒</t>
+    <t>atk*0.2+speed*0.4</t>
+  </si>
+  <si>
+    <t>增加一定攻击力，持续15秒</t>
   </si>
   <si>
     <t>禁锢</t>
   </si>
   <si>
-    <t>减少10点攻击力，持续15秒</t>
+    <t>(atk*0.4+def*0.2)*(-1)</t>
+  </si>
+  <si>
+    <t>减少一定攻击力，持续15秒</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>眩晕状态无法攻击，持续三秒</t>
+  </si>
+  <si>
+    <t>群攻</t>
+  </si>
+  <si>
+    <t>(atk+speed*0.5)*0.65</t>
+  </si>
+  <si>
+    <t>群体攻击技能</t>
   </si>
 </sst>
 </file>
@@ -74,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,6 +130,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -95,55 +199,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,78 +246,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,60 +283,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,13 +433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,103 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +474,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,54 +503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +531,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -532,6 +556,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,145 +582,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,15 +1076,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B13" sqref="B13:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="4" max="4" width="33.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,121 +1116,256 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>15000</v>
-      </c>
       <c r="F2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>120000</v>
-      </c>
       <c r="F3">
-        <v>15</v>
+        <v>9000</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>10000</v>
-      </c>
       <c r="F4">
-        <v>1</v>
+        <v>120000</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
         <v>15000</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>15000</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/src/main/resources/excels/Buff.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15708" windowHeight="8435"/>
+    <workbookView windowWidth="21216" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,9 @@
     <t>rate</t>
   </si>
   <si>
+    <t>summon</t>
+  </si>
+  <si>
     <t>伤害</t>
   </si>
   <si>
@@ -109,6 +112,12 @@
   </si>
   <si>
     <t>群体攻击技能</t>
+  </si>
+  <si>
+    <t>召唤</t>
+  </si>
+  <si>
+    <t>召唤一个召唤兽！</t>
   </si>
 </sst>
 </file>
@@ -117,9 +126,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -138,25 +147,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,50 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -222,53 +254,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,19 +292,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,13 +412,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,145 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +483,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,6 +512,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,49 +548,28 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -565,15 +583,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,16 +603,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,115 +621,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,19 +1085,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D14"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="33.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="28.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,6 +1130,9 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1128,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1152,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1163,13 +1175,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1187,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>0.9</v>
@@ -1198,13 +1210,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1222,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0.8</v>
@@ -1233,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1242,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -1257,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1268,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1277,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>15000</v>
@@ -1292,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1303,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1327,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>0.5</v>
@@ -1338,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1362,9 +1374,41 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>180000</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
     </row>
